--- a/HW3/Data/chomage.xlsx
+++ b/HW3/Data/chomage.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
   <si>
     <t xml:space="preserve">Région linguistique</t>
   </si>
@@ -34,9 +34,6 @@
     <t xml:space="preserve">Taux de chômage</t>
   </si>
   <si>
-    <t xml:space="preserve">Coefficients de variation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chômeurs inscrits</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t xml:space="preserve">3.3</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
     <t xml:space="preserve">Berne</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t xml:space="preserve">0.6</t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
     <t xml:space="preserve">Schwyz</t>
   </si>
   <si>
@@ -86,9 +77,6 @@
   </si>
   <si>
     <t xml:space="preserve">0.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
   </si>
   <si>
     <t xml:space="preserve">Nidwald</t>
@@ -254,7 +242,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -283,7 +271,7 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -292,12 +280,6 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -320,1035 +302,873 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
         <v>9</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>27225</v>
       </c>
       <c r="F3" s="1">
+        <v>34156</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6931</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1">
         <v>27225</v>
       </c>
-      <c r="G3" s="1">
+      <c r="J3" s="1">
         <v>34156</v>
       </c>
-      <c r="H3" s="1">
-        <v>6931</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
       <c r="K3" s="1">
-        <v>27225</v>
-      </c>
-      <c r="L3" s="1">
-        <v>34156</v>
-      </c>
-      <c r="M3" s="1">
         <v>6931</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
         <v>14</v>
       </c>
+      <c r="E4" s="1">
+        <v>13658</v>
+      </c>
       <c r="F4" s="1">
+        <v>18385</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4727</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1">
         <v>13658</v>
       </c>
-      <c r="G4" s="1">
+      <c r="J4" s="1">
         <v>18385</v>
       </c>
-      <c r="H4" s="1">
-        <v>4727</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
       <c r="K4" s="1">
-        <v>13658</v>
-      </c>
-      <c r="L4" s="1">
-        <v>18385</v>
-      </c>
-      <c r="M4" s="1">
         <v>4727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3885</v>
       </c>
       <c r="F5" s="1">
+        <v>6756</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2871</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1">
         <v>3885</v>
       </c>
-      <c r="G5" s="1">
+      <c r="J5" s="1">
         <v>6756</v>
       </c>
-      <c r="H5" s="1">
-        <v>2871</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
       <c r="K5" s="1">
-        <v>3885</v>
-      </c>
-      <c r="L5" s="1">
-        <v>6756</v>
-      </c>
-      <c r="M5" s="1">
         <v>2871</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="E6" s="1">
+        <v>112</v>
       </c>
       <c r="F6" s="1">
+        <v>257</v>
+      </c>
+      <c r="G6" s="1">
+        <v>145</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1">
         <v>112</v>
       </c>
-      <c r="G6" s="1">
+      <c r="J6" s="1">
         <v>257</v>
       </c>
-      <c r="H6" s="1">
-        <v>145</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
       <c r="K6" s="1">
-        <v>112</v>
-      </c>
-      <c r="L6" s="1">
-        <v>257</v>
-      </c>
-      <c r="M6" s="1">
         <v>145</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1455</v>
       </c>
       <c r="F7" s="1">
+        <v>2229</v>
+      </c>
+      <c r="G7" s="1">
+        <v>774</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1">
         <v>1455</v>
       </c>
-      <c r="G7" s="1">
+      <c r="J7" s="1">
         <v>2229</v>
       </c>
-      <c r="H7" s="1">
-        <v>774</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
       <c r="K7" s="1">
-        <v>1455</v>
-      </c>
-      <c r="L7" s="1">
-        <v>2229</v>
-      </c>
-      <c r="M7" s="1">
         <v>774</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="E8" s="1">
+        <v>153</v>
       </c>
       <c r="F8" s="1">
+        <v>319</v>
+      </c>
+      <c r="G8" s="1">
+        <v>166</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="1">
         <v>153</v>
       </c>
-      <c r="G8" s="1">
+      <c r="J8" s="1">
         <v>319</v>
       </c>
-      <c r="H8" s="1">
-        <v>166</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
       <c r="K8" s="1">
-        <v>153</v>
-      </c>
-      <c r="L8" s="1">
-        <v>319</v>
-      </c>
-      <c r="M8" s="1">
         <v>166</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="E9" s="1">
+        <v>248</v>
       </c>
       <c r="F9" s="1">
+        <v>436</v>
+      </c>
+      <c r="G9" s="1">
+        <v>188</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="1">
         <v>248</v>
       </c>
-      <c r="G9" s="1">
+      <c r="J9" s="1">
         <v>436</v>
       </c>
-      <c r="H9" s="1">
-        <v>188</v>
-      </c>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" t="s">
-        <v>25</v>
-      </c>
       <c r="K9" s="1">
-        <v>248</v>
-      </c>
-      <c r="L9" s="1">
-        <v>436</v>
-      </c>
-      <c r="M9" s="1">
         <v>188</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
         <v>25</v>
       </c>
+      <c r="E10" s="1">
+        <v>416</v>
+      </c>
       <c r="F10" s="1">
+        <v>713</v>
+      </c>
+      <c r="G10" s="1">
+        <v>297</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1">
         <v>416</v>
       </c>
-      <c r="G10" s="1">
+      <c r="J10" s="1">
         <v>713</v>
       </c>
-      <c r="H10" s="1">
-        <v>297</v>
-      </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" t="s">
-        <v>25</v>
-      </c>
       <c r="K10" s="1">
-        <v>416</v>
-      </c>
-      <c r="L10" s="1">
-        <v>713</v>
-      </c>
-      <c r="M10" s="1">
         <v>297</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1543</v>
       </c>
       <c r="F11" s="1">
+        <v>2615</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1072</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="1">
         <v>1543</v>
       </c>
-      <c r="G11" s="1">
+      <c r="J11" s="1">
         <v>2615</v>
       </c>
-      <c r="H11" s="1">
-        <v>1072</v>
-      </c>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" t="s">
-        <v>25</v>
-      </c>
       <c r="K11" s="1">
-        <v>1543</v>
-      </c>
-      <c r="L11" s="1">
-        <v>2615</v>
-      </c>
-      <c r="M11" s="1">
         <v>1072</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3801</v>
       </c>
       <c r="F12" s="1">
+        <v>6628</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2827</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="1">
         <v>3801</v>
       </c>
-      <c r="G12" s="1">
+      <c r="J12" s="1">
         <v>6628</v>
       </c>
-      <c r="H12" s="1">
-        <v>2827</v>
-      </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
       <c r="K12" s="1">
-        <v>3801</v>
-      </c>
-      <c r="L12" s="1">
-        <v>6628</v>
-      </c>
-      <c r="M12" s="1">
         <v>2827</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3455</v>
       </c>
       <c r="F13" s="1">
+        <v>5168</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1713</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="1">
         <v>3455</v>
       </c>
-      <c r="G13" s="1">
+      <c r="J13" s="1">
         <v>5168</v>
       </c>
-      <c r="H13" s="1">
-        <v>1713</v>
-      </c>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
       <c r="K13" s="1">
-        <v>3455</v>
-      </c>
-      <c r="L13" s="1">
-        <v>5168</v>
-      </c>
-      <c r="M13" s="1">
         <v>1713</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4082</v>
       </c>
       <c r="F14" s="1">
+        <v>5540</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1458</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="1">
         <v>4082</v>
       </c>
-      <c r="G14" s="1">
+      <c r="J14" s="1">
         <v>5540</v>
       </c>
-      <c r="H14" s="1">
-        <v>1458</v>
-      </c>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" t="s">
-        <v>14</v>
-      </c>
       <c r="K14" s="1">
-        <v>4082</v>
-      </c>
-      <c r="L14" s="1">
-        <v>5540</v>
-      </c>
-      <c r="M14" s="1">
         <v>1458</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1286</v>
       </c>
       <c r="F15" s="1">
+        <v>2328</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1042</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="1">
         <v>1286</v>
       </c>
-      <c r="G15" s="1">
+      <c r="J15" s="1">
         <v>2328</v>
       </c>
-      <c r="H15" s="1">
-        <v>1042</v>
-      </c>
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" t="s">
-        <v>25</v>
-      </c>
       <c r="K15" s="1">
-        <v>1286</v>
-      </c>
-      <c r="L15" s="1">
-        <v>2328</v>
-      </c>
-      <c r="M15" s="1">
         <v>1042</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="E16" s="1">
+        <v>523</v>
       </c>
       <c r="F16" s="1">
+        <v>866</v>
+      </c>
+      <c r="G16" s="1">
+        <v>343</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="1">
         <v>523</v>
       </c>
-      <c r="G16" s="1">
+      <c r="J16" s="1">
         <v>866</v>
       </c>
-      <c r="H16" s="1">
-        <v>343</v>
-      </c>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" t="s">
-        <v>25</v>
-      </c>
       <c r="K16" s="1">
-        <v>523</v>
-      </c>
-      <c r="L16" s="1">
-        <v>866</v>
-      </c>
-      <c r="M16" s="1">
         <v>343</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
         <v>21</v>
       </c>
+      <c r="E17" s="1">
+        <v>62</v>
+      </c>
       <c r="F17" s="1">
+        <v>102</v>
+      </c>
+      <c r="G17" s="1">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="1">
         <v>62</v>
       </c>
-      <c r="G17" s="1">
+      <c r="J17" s="1">
         <v>102</v>
       </c>
-      <c r="H17" s="1">
-        <v>40</v>
-      </c>
-      <c r="I17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" t="s">
-        <v>21</v>
-      </c>
       <c r="K17" s="1">
-        <v>62</v>
-      </c>
-      <c r="L17" s="1">
-        <v>102</v>
-      </c>
-      <c r="M17" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6127</v>
       </c>
       <c r="F18" s="1">
+        <v>10363</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4236</v>
+      </c>
+      <c r="H18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="1">
         <v>6127</v>
       </c>
-      <c r="G18" s="1">
+      <c r="J18" s="1">
         <v>10363</v>
       </c>
-      <c r="H18" s="1">
-        <v>4236</v>
-      </c>
-      <c r="I18" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" t="s">
-        <v>14</v>
-      </c>
       <c r="K18" s="1">
-        <v>6127</v>
-      </c>
-      <c r="L18" s="1">
-        <v>10363</v>
-      </c>
-      <c r="M18" s="1">
         <v>4236</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1166</v>
       </c>
       <c r="F19" s="1">
+        <v>2590</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1424</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="1">
         <v>1166</v>
       </c>
-      <c r="G19" s="1">
+      <c r="J19" s="1">
         <v>2590</v>
       </c>
-      <c r="H19" s="1">
-        <v>1424</v>
-      </c>
-      <c r="I19" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" t="s">
-        <v>14</v>
-      </c>
       <c r="K19" s="1">
-        <v>1166</v>
-      </c>
-      <c r="L19" s="1">
-        <v>2590</v>
-      </c>
-      <c r="M19" s="1">
         <v>1424</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="E20" s="1">
+        <v>10684</v>
       </c>
       <c r="F20" s="1">
+        <v>15145</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4461</v>
+      </c>
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="1">
         <v>10684</v>
       </c>
-      <c r="G20" s="1">
+      <c r="J20" s="1">
         <v>15145</v>
       </c>
-      <c r="H20" s="1">
-        <v>4461</v>
-      </c>
-      <c r="I20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" t="s">
-        <v>14</v>
-      </c>
       <c r="K20" s="1">
-        <v>10684</v>
-      </c>
-      <c r="L20" s="1">
-        <v>15145</v>
-      </c>
-      <c r="M20" s="1">
         <v>4461</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3058</v>
       </c>
       <c r="F21" s="1">
+        <v>5618</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2560</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="1">
         <v>3058</v>
       </c>
-      <c r="G21" s="1">
+      <c r="J21" s="1">
         <v>5618</v>
       </c>
-      <c r="H21" s="1">
-        <v>2560</v>
-      </c>
-      <c r="I21" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" t="s">
-        <v>14</v>
-      </c>
       <c r="K21" s="1">
-        <v>3058</v>
-      </c>
-      <c r="L21" s="1">
-        <v>5618</v>
-      </c>
-      <c r="M21" s="1">
         <v>2560</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
+        <v>48</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4466</v>
       </c>
       <c r="F22" s="1">
+        <v>7837</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3371</v>
+      </c>
+      <c r="H22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="1">
         <v>4466</v>
       </c>
-      <c r="G22" s="1">
+      <c r="J22" s="1">
         <v>7837</v>
       </c>
-      <c r="H22" s="1">
-        <v>3371</v>
-      </c>
-      <c r="I22" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" t="s">
-        <v>14</v>
-      </c>
       <c r="K22" s="1">
-        <v>4466</v>
-      </c>
-      <c r="L22" s="1">
-        <v>7837</v>
-      </c>
-      <c r="M22" s="1">
         <v>3371</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="E23" s="1">
+        <v>5202</v>
       </c>
       <c r="F23" s="1">
+        <v>8675</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3473</v>
+      </c>
+      <c r="H23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="1">
         <v>5202</v>
       </c>
-      <c r="G23" s="1">
+      <c r="J23" s="1">
         <v>8675</v>
       </c>
-      <c r="H23" s="1">
-        <v>3473</v>
-      </c>
-      <c r="I23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" t="s">
-        <v>14</v>
-      </c>
       <c r="K23" s="1">
-        <v>5202</v>
-      </c>
-      <c r="L23" s="1">
-        <v>8675</v>
-      </c>
-      <c r="M23" s="1">
         <v>3473</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
+        <v>52</v>
+      </c>
+      <c r="E24" s="1">
+        <v>17155</v>
       </c>
       <c r="F24" s="1">
+        <v>24649</v>
+      </c>
+      <c r="G24" s="1">
+        <v>7494</v>
+      </c>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="1">
         <v>17155</v>
       </c>
-      <c r="G24" s="1">
+      <c r="J24" s="1">
         <v>24649</v>
       </c>
-      <c r="H24" s="1">
-        <v>7494</v>
-      </c>
-      <c r="I24" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" t="s">
-        <v>14</v>
-      </c>
       <c r="K24" s="1">
-        <v>17155</v>
-      </c>
-      <c r="L24" s="1">
-        <v>24649</v>
-      </c>
-      <c r="M24" s="1">
         <v>7494</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4816</v>
       </c>
       <c r="F25" s="1">
+        <v>8027</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3211</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="1">
         <v>4816</v>
       </c>
-      <c r="G25" s="1">
+      <c r="J25" s="1">
         <v>8027</v>
       </c>
-      <c r="H25" s="1">
-        <v>3211</v>
-      </c>
-      <c r="I25" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25" t="s">
-        <v>14</v>
-      </c>
       <c r="K25" s="1">
-        <v>4816</v>
-      </c>
-      <c r="L25" s="1">
-        <v>8027</v>
-      </c>
-      <c r="M25" s="1">
         <v>3211</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
+        <v>55</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4738</v>
       </c>
       <c r="F26" s="1">
+        <v>6350</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1612</v>
+      </c>
+      <c r="H26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="1">
         <v>4738</v>
       </c>
-      <c r="G26" s="1">
+      <c r="J26" s="1">
         <v>6350</v>
       </c>
-      <c r="H26" s="1">
-        <v>1612</v>
-      </c>
-      <c r="I26" t="s">
-        <v>59</v>
-      </c>
-      <c r="J26" t="s">
-        <v>14</v>
-      </c>
       <c r="K26" s="1">
-        <v>4738</v>
-      </c>
-      <c r="L26" s="1">
-        <v>6350</v>
-      </c>
-      <c r="M26" s="1">
         <v>1612</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
+        <v>57</v>
+      </c>
+      <c r="E27" s="1">
+        <v>12234</v>
       </c>
       <c r="F27" s="1">
+        <v>15497</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3263</v>
+      </c>
+      <c r="H27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="1">
         <v>12234</v>
       </c>
-      <c r="G27" s="1">
+      <c r="J27" s="1">
         <v>15497</v>
       </c>
-      <c r="H27" s="1">
-        <v>3263</v>
-      </c>
-      <c r="I27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J27" t="s">
-        <v>14</v>
-      </c>
       <c r="K27" s="1">
-        <v>12234</v>
-      </c>
-      <c r="L27" s="1">
-        <v>15497</v>
-      </c>
-      <c r="M27" s="1">
         <v>3263</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" t="s">
-        <v>25</v>
+        <v>59</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1619</v>
       </c>
       <c r="F28" s="1">
+        <v>2375</v>
+      </c>
+      <c r="G28" s="1">
+        <v>756</v>
+      </c>
+      <c r="H28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28" s="1">
         <v>1619</v>
       </c>
-      <c r="G28" s="1">
+      <c r="J28" s="1">
         <v>2375</v>
       </c>
-      <c r="H28" s="1">
-        <v>756</v>
-      </c>
-      <c r="I28" t="s">
-        <v>63</v>
-      </c>
-      <c r="J28" t="s">
-        <v>25</v>
-      </c>
       <c r="K28" s="1">
-        <v>1619</v>
-      </c>
-      <c r="L28" s="1">
-        <v>2375</v>
-      </c>
-      <c r="M28" s="1">
         <v>756</v>
       </c>
     </row>
@@ -1357,37 +1177,31 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="E29" s="1">
+        <v>133169</v>
       </c>
       <c r="F29" s="1">
+        <v>193624</v>
+      </c>
+      <c r="G29" s="1">
+        <v>60455</v>
+      </c>
+      <c r="H29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="1">
         <v>133169</v>
       </c>
-      <c r="G29" s="1">
+      <c r="J29" s="1">
         <v>193624</v>
       </c>
-      <c r="H29" s="1">
-        <v>60455</v>
-      </c>
-      <c r="I29" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" t="s">
-        <v>14</v>
-      </c>
       <c r="K29" s="1">
-        <v>133169</v>
-      </c>
-      <c r="L29" s="1">
-        <v>193624</v>
-      </c>
-      <c r="M29" s="1">
         <v>60455</v>
       </c>
     </row>
